--- a/Excel/4.2.xlsx
+++ b/Excel/4.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS ZEPHYRUS M16\Documents\Estructura-de-datos-2\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9818353C-F2DE-47F8-AF60-733D0919008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DED22D-91D8-4D7B-B731-32E18FAA07ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -384,43 +384,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,7 +423,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,16 +442,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,896 +736,821 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="27"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="9"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="10"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="10"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="9"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="9"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="9"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="9"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="9"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="16" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="16" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="16" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="16" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="16" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="16" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="16" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="16" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="19"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="13"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="16" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="16" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="16" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="16" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="16" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="16" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="16" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="16" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="16" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="16" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:K44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:K46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:K43"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="D5:O5"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="D13:O13"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:K29"/>
     <mergeCell ref="D16:K16"/>
@@ -1648,35 +1567,53 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:K28"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="D5:O5"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:K49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
